--- a/medicine/Enfance/Poussette/Poussette.xlsx
+++ b/medicine/Enfance/Poussette/Poussette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La poussette est un moyen de transport pour enfant en bas âge (de 0 à 4 ans). Elle est constituée de roues qui supportent un châssis (généralement en acier ou en aluminium).  Sur le châssis s'adapte un siège dit « hamac » dans lequel peut s'asseoir l'enfant.  Un système de poignées ou de guidon permet de diriger la poussette et de la faire avancer.  Parfois, on peut fixer une coque, un siège auto ou une nacelle (landau) sur le châssis.
 Il existe différents types de poussettes, selon l'âge de l'enfant et ses besoins, les préférences des parents et l'usage que l'on veut en faire.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première forme de poussette a été inventée par William Kent en 1733[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première forme de poussette a été inventée par William Kent en 1733.
 William Kent était un architecte de jardin anglais reconnu pour son travail. En 1733, le Duc de Devonshire lui demanda de concevoir un moyen de transport pour ses enfants. Il conçut alors un chariot, constitué d'un panier sur roues, dans lequel les enfants pouvaient se tenir assis. Pour un meilleur confort, des ressorts ont été ajoutés au panier. Ce chariot était pourvu d'un harnais, afin qu'il puisse être tiré par une chèvre ou un petit poney.
 Les chariots devinrent très populaires. Au milieu du XIXe siècle, ceux-ci étaient conçus en bois ou osier, reliés par des joints de cuivre.  Ils étaient parfois tellement ornementés qu'ils constituaient de véritables œuvres d'art.
 Le 18 juin 1889, William Richardson fit breveter son idée de poussette réversible. On pouvait alors choisir de placer l'enfant face à la direction choisie ou face au pousseur. Il effectua également des changements structurels notamment au niveau des roues. Chaque roue pouvait se déplacer séparément.
@@ -555,25 +569,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poussette canne
-Cette appellation lui vient de son pliage en 3 dimensions, lui permettant de se rétracter en longueur puis en largeur.  Elle est aussi appelée "poussette parapluie".  C'est une poussette ultra compacte (pliée et dépliée), légère (en moyenne 6 kg) et très maniable.  Il s'agit le plus souvent d'une poussette 2e âge.  En effet, elle s'utilise dès 6–9 mois, à partir du moment où l'enfant préfère la position assise.
+          <t>Poussette canne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette appellation lui vient de son pliage en 3 dimensions, lui permettant de se rétracter en longueur puis en largeur.  Elle est aussi appelée "poussette parapluie".  C'est une poussette ultra compacte (pliée et dépliée), légère (en moyenne 6 kg) et très maniable.  Il s'agit le plus souvent d'une poussette 2e âge.  En effet, elle s'utilise dès 6–9 mois, à partir du moment où l'enfant préfère la position assise.
 Elle peut parfois s'utiliser dès la naissance si le siège est inclinable à plus de 150° et si le harnais de sécurité est adapté.  On peut également l'utiliser dès la naissance s'il est possible de fixer sur la poussette une coque / siège-auto : il s'agit alors d'une poussette Travel System (voir paragraphe suivant).
-Les poussettes cannes sont habituellement constituées de matériaux très légers : la majorité des modèles disponibles en 2012 sur le marché français pèsent moins de dix kilos. L'aluminium est à ce jour le matériau considéré par les fabricants comme la solution optimale entre légèreté et robustesse pour concevoir des poussettes cannes compactes, solides et sûres pour les bébés[2].
-La poussette compacte
-C'est une poussette qui se plie en une seule fois, et qui prend très peu de place. Elle est légère et parfois même considérée comme bagage cabine. Les plus connues sont la poussette Yoyo de Babyzen, et la poussette Squizz de Looping.
-Poussette Travel System
-Une poussette est dite Travel System si elle peut accueillir une nacelle (landau) et/ou une coque / siège-auto.  Elle s'utilise dès la naissance.
-Poussette tout-terrain
-Elle est très souvent dotée de trois roues (deux à l'arrière et une à l'avant) assez grandes qui lui permettent de circuler sur tout type de terrain.  Elle est pourvue d'options qui favorisent le confort de l'enfant et du parent (amortisseurs, roues gonflables, siège molletonné, frein progressif, etc.), ce qui la rend souvent plus lourde et imposante.
-Poussette à trois roues
-La poussette à trois roues est très souvent une poussette tout-terrain mais elle peut être à usage urbain uniquement, si celle-ci comporte de petites roues ou ne possède pas de suspension.
-Poussette double ou triple
-Il y a deux types de poussette double : la poussette pour jumeaux et la poussette pour enfants d'âge rapproché. La poussette double peut, être, Travel System, utilisable dès la naissance, permettant de nombreuses combinaisons entre les nacelles et coques / sièges-auto.
-Autrement, ce peut être une poussette canne, utilisable dès 6–9 mois ou dès la naissance si les sièges sont inclinables à plus de 150° et si les harnais sont adaptés. La poussette triple permet d'accueillir 3 enfants, généralement dès leur naissance.
-Poussette 1er âge
-Cela désigne une poussette utilisable dès la naissance.
-Poussette 2e âge
-Cela désigne une poussette utilisable dès 6 mois.  Toutefois, si une poussette 2e âge est Travel System ou si son siège s'incline à plus de 150° et que son harnais est adapté, elle peut être utilisée dès la naissance.
+Les poussettes cannes sont habituellement constituées de matériaux très légers : la majorité des modèles disponibles en 2012 sur le marché français pèsent moins de dix kilos. L'aluminium est à ce jour le matériau considéré par les fabricants comme la solution optimale entre légèreté et robustesse pour concevoir des poussettes cannes compactes, solides et sûres pour les bébés.
 </t>
         </is>
       </c>
@@ -599,12 +603,274 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La poussette compacte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une poussette qui se plie en une seule fois, et qui prend très peu de place. Elle est légère et parfois même considérée comme bagage cabine. Les plus connues sont la poussette Yoyo de Babyzen, et la poussette Squizz de Looping.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poussette Travel System</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une poussette est dite Travel System si elle peut accueillir une nacelle (landau) et/ou une coque / siège-auto.  Elle s'utilise dès la naissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poussette tout-terrain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est très souvent dotée de trois roues (deux à l'arrière et une à l'avant) assez grandes qui lui permettent de circuler sur tout type de terrain.  Elle est pourvue d'options qui favorisent le confort de l'enfant et du parent (amortisseurs, roues gonflables, siège molletonné, frein progressif, etc.), ce qui la rend souvent plus lourde et imposante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poussette à trois roues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poussette à trois roues est très souvent une poussette tout-terrain mais elle peut être à usage urbain uniquement, si celle-ci comporte de petites roues ou ne possède pas de suspension.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poussette double ou triple</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a deux types de poussette double : la poussette pour jumeaux et la poussette pour enfants d'âge rapproché. La poussette double peut, être, Travel System, utilisable dès la naissance, permettant de nombreuses combinaisons entre les nacelles et coques / sièges-auto.
+Autrement, ce peut être une poussette canne, utilisable dès 6–9 mois ou dès la naissance si les sièges sont inclinables à plus de 150° et si les harnais sont adaptés. La poussette triple permet d'accueillir 3 enfants, généralement dès leur naissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poussette 1er âge</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cela désigne une poussette utilisable dès la naissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Types de poussette</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Poussette 2e âge</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cela désigne une poussette utilisable dès 6 mois.  Toutefois, si une poussette 2e âge est Travel System ou si son siège s'incline à plus de 150° et que son harnais est adapté, elle peut être utilisée dès la naissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Poussette</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poussette</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Principaux fabricants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aubert, Houssen (Alsace, France)[3]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aubert, Houssen (Alsace, France)
 Bambisol (France)
 Bébé Confort (France)
 Bébécar (Portugal)
